--- a/ProyectoWeb/3. AnalisisRequerimientos.xlsx
+++ b/ProyectoWeb/3. AnalisisRequerimientos.xlsx
@@ -426,9 +426,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,25 +706,25 @@
   <cols>
     <col min="1" max="1" width="158.375" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="4.375" customWidth="1"/>
     <col min="10" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -744,1027 +744,1027 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="8" t="s">
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="8" t="s">
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="8" t="s">
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9" t="s">
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="14" t="s">
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8" t="s">
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="9" t="s">
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="14" t="s">
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="8" t="s">
+      <c r="G29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9" t="s">
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="8" t="s">
+      <c r="G35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="8" t="s">
+      <c r="G36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9" t="s">
+      <c r="G37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="9" t="s">
+      <c r="G38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="18" t="s">
+      <c r="G43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="B47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="18" t="s">
+      <c r="G47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="18" t="s">
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="24"/>
@@ -2782,7 +2782,7 @@
       <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="24"/>
@@ -2800,7 +2800,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="24"/>
@@ -2818,7 +2818,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="24"/>
@@ -2836,7 +2836,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="24"/>
@@ -2854,7 +2854,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="24"/>
@@ -2872,7 +2872,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="24"/>
@@ -2890,7 +2890,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="24"/>
@@ -2908,7 +2908,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="24"/>
@@ -2926,7 +2926,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="24"/>
@@ -2944,7 +2944,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="24"/>
@@ -2962,7 +2962,7 @@
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="24"/>
@@ -2980,7 +2980,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="24"/>
@@ -2998,7 +2998,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="24"/>
@@ -3016,7 +3016,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="24"/>
@@ -3032,19 +3032,19 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="24"/>
@@ -3060,19 +3060,19 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="24"/>
@@ -3088,19 +3088,19 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="24"/>
@@ -3116,19 +3116,19 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="24"/>
@@ -3144,19 +3144,19 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="24"/>
@@ -3172,19 +3172,19 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="24"/>
@@ -3200,47 +3200,47 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="24"/>
@@ -3256,1239 +3256,1239 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="S26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="T26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="U26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="V26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="W26" s="21" t="s">
+      <c r="W26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="X26" s="21" t="s">
+      <c r="X26" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" s="20" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="20" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" s="20" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X30" s="20" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X31" s="20" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="20" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X33" s="20" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X34" s="20" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X35" s="20" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X36" s="20" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X37" s="20" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X37" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X38" s="20" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X38" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X39" s="20" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X39" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X40" s="20" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X41" s="20" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X42" s="20" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X43" s="20" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X44" s="20" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X44" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X45" s="20" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W46" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X46" s="20" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X46" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X47" s="20" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X47" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="20" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5442,6 +5442,14 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="A20:N20"/>
     <mergeCell ref="A21:N21"/>
     <mergeCell ref="A22:N22"/>
@@ -5458,14 +5466,6 @@
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
